--- a/Escalonamento.xlsx
+++ b/Escalonamento.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Gonçalo PC\Escola\Faculdade\FEUP\5º Ano 1º Semestre\SE\Projeto\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\up202003537\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DA3B98-E801-4042-A9A1-0B36F89D7C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE43B6C3-C968-4E21-95E9-F772993470B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 &amp; 2 Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="3 Tasks" sheetId="2" r:id="rId2"/>
     <sheet name="4 &amp; 5 Tasks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Task 1</t>
   </si>
@@ -44,9 +53,6 @@
     <t>Task 5</t>
   </si>
   <si>
-    <t>284/283/282</t>
-  </si>
-  <si>
     <t>Task 1 + Task 2</t>
   </si>
   <si>
@@ -116,13 +122,40 @@
     <t>Task 1 + Task 2 + Task 3 + Task 4 + Task 5</t>
   </si>
   <si>
-    <t>Total Time (ms)</t>
+    <t xml:space="preserve">Total Time (ms) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time (us) </t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>T (us)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,11 +191,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,29 +480,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:T21"/>
+  <dimension ref="C2:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+      <c r="D3" s="1">
+        <v>283.8</v>
       </c>
       <c r="E3" s="1">
         <v>284</v>
@@ -517,11 +559,8 @@
       </c>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -542,10 +581,10 @@
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -566,10 +605,10 @@
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -590,10 +629,10 @@
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -613,8 +652,15 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -632,10 +678,9 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -655,9 +700,11 @@
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>284.5</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -677,47 +724,267 @@
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>283.8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>283.8</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>283.8</v>
+      </c>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>840</v>
+      </c>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>840</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="M19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+      <c r="M20" s="1">
+        <v>500000</v>
+      </c>
+      <c r="N20" s="3">
+        <f>M20</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="1">
+        <v>500000</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" ref="N21:N24" si="0">M21</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>15</v>
+      <c r="M22" s="1">
+        <v>50000</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>50000</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>5000</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1">
+        <f>D3*1000</f>
+        <v>283800</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="3">
+        <f>D26</f>
+        <v>283800</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <f>D26+D5</f>
+        <v>284488</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D5+_xlfn.CEILING.MATH(D27/M20)*D26</f>
+        <v>284488</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="H27" s="3">
+        <f t="shared" ref="H27:I30" si="1">D27</f>
+        <v>284488</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
+        <v>284488</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1">
+        <f>D27+D6</f>
+        <v>284512</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D6+_xlfn.CEILING.MATH(D28/M20)*D26+_xlfn.CEILING.MATH(D28/M21)*D5</f>
+        <v>284512</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>284512</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>284512</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1">
+        <f>D28+D7</f>
+        <v>284536</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D7+_xlfn.CEILING.MATH(D29/M20)*D26+_xlfn.CEILING.MATH(D29/M21)*D5+_xlfn.CEILING.MATH(D29/M22)*D6</f>
+        <v>284656</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D7+_xlfn.CEILING.MATH(E29/M20)*D26+_xlfn.CEILING.MATH(E29/M21)*D5+_xlfn.CEILING.MATH(E29/M22)*D6</f>
+        <v>284656</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>284536</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" ref="I29:I30" si="2">E29</f>
+        <v>284656</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" ref="J29:J30" si="3">F29</f>
+        <v>284656</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1">
+        <f>D29+D8</f>
+        <v>284548</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D8+_xlfn.CEILING.MATH(D30/M20)*D26+_xlfn.CEILING.MATH(D30/M21)*D5+_xlfn.CEILING.MATH(D30/M22)*D6+_xlfn.CEILING.MATH(D30/M23)*D7</f>
+        <v>284788</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D8+_xlfn.CEILING.MATH(E30/M20)*D26+_xlfn.CEILING.MATH(E30/M21)*D5+_xlfn.CEILING.MATH(E30/M22)*D6+_xlfn.CEILING.MATH(E30/M23)*D7</f>
+        <v>284788</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>284548</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="2"/>
+        <v>284788</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="3"/>
+        <v>284788</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -736,42 +1003,42 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
@@ -806,22 +1073,22 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
@@ -829,7 +1096,7 @@
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
